--- a/Annotation/指令格式.xlsx
+++ b/Annotation/指令格式.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
   <si>
     <t>AGV指令控制字（忽略大小写）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t>获取最近编码器位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除指令缓存区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1570,43 +1582,57 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>155</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>157</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H56" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Annotation/指令格式.xlsx
+++ b/Annotation/指令格式.xlsx
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂停一段时间(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,6 +663,10 @@
   </si>
   <si>
     <t>I30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停一段时间(10ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>146</v>
-      </c>
-      <c r="G16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1173,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1187,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1200,18 +1200,18 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
         <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1241,13 +1241,13 @@
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1255,10 +1255,10 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
@@ -1269,13 +1269,13 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1283,13 +1283,13 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1303,337 +1303,337 @@
         <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
         <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>60</v>
-      </c>
-      <c r="H32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s">
         <v>64</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>142</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>67</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>68</v>
-      </c>
-      <c r="H35" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>72</v>
-      </c>
-      <c r="H36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>75</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>76</v>
-      </c>
-      <c r="H37" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>80</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>95</v>
-      </c>
-      <c r="H40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
         <v>83</v>
       </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>84</v>
-      </c>
-      <c r="H41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>87</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>88</v>
-      </c>
-      <c r="H42" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>91</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
         <v>98</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>99</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>103</v>
-      </c>
-      <c r="H45" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
         <v>106</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>107</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>108</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
         <v>110</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>111</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>112</v>
-      </c>
-      <c r="H47" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
         <v>115</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
         <v>161</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>162</v>
       </c>
-      <c r="E53" t="s">
-        <v>163</v>
-      </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
         <v>117</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>119</v>
-      </c>
-      <c r="H54" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
         <v>154</v>
       </c>
-      <c r="C56" t="s">
-        <v>155</v>
-      </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
